--- a/DA/src/main/resources/excel-templates/marketAndBudget-template.xlsx
+++ b/DA/src/main/resources/excel-templates/marketAndBudget-template.xlsx
@@ -91,25 +91,13 @@
     <t>#{tmanager}</t>
   </si>
   <si>
-    <t>#{yyb}</t>
-  </si>
-  <si>
     <t>#{yybManager}</t>
   </si>
   <si>
-    <t>#{fgs}</t>
-  </si>
-  <si>
     <t>#{fgsManager}</t>
   </si>
   <si>
-    <t>#{dq}</t>
-  </si>
-  <si>
     <t>#{dqManager}</t>
-  </si>
-  <si>
-    <t>#{syb}</t>
   </si>
   <si>
     <t>#{sybManager}</t>
@@ -167,6 +155,22 @@
       </rPr>
       <t>}</t>
     </r>
+  </si>
+  <si>
+    <t>#{yybname}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{fgsname}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{dqname}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{sybname}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -672,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -685,6 +689,7 @@
     <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" customHeight="1">
@@ -759,10 +764,10 @@
         <v>16</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="27" customHeight="1">
@@ -790,48 +795,48 @@
       <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" ht="21" customHeight="1">
       <c r="H5" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
